--- a/Team-Data/2014-15/4-4-2014-15.xlsx
+++ b/Team-Data/2014-15/4-4-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J2" t="n">
         <v>81.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.467</v>
+        <v>0.465</v>
       </c>
       <c r="L2" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>0.386</v>
+        <v>0.384</v>
       </c>
       <c r="O2" t="n">
         <v>16.7</v>
@@ -705,28 +772,28 @@
         <v>21.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T2" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U2" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="V2" t="n">
         <v>14.4</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
         <v>4.9</v>
@@ -738,13 +805,13 @@
         <v>20</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.7</v>
+        <v>102.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -759,7 +826,7 @@
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>27</v>
@@ -768,22 +835,22 @@
         <v>3</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN2" t="n">
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP2" t="n">
         <v>24</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
@@ -804,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -819,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="BC2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="n">
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>0.455</v>
+        <v>0.447</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J3" t="n">
-        <v>88</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
@@ -878,7 +945,7 @@
         <v>24.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.325</v>
+        <v>0.326</v>
       </c>
       <c r="O3" t="n">
         <v>15.4</v>
@@ -887,7 +954,7 @@
         <v>20.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R3" t="n">
         <v>11.1</v>
@@ -902,7 +969,7 @@
         <v>24.3</v>
       </c>
       <c r="V3" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -914,13 +981,13 @@
         <v>5.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
         <v>-0.7</v>
@@ -929,25 +996,25 @@
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -995,10 +1062,10 @@
         <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="n">
         <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.461</v>
+        <v>0.467</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
@@ -1048,34 +1115,34 @@
         <v>37.4</v>
       </c>
       <c r="J4" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K4" t="n">
         <v>0.452</v>
       </c>
       <c r="L4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.33</v>
+        <v>0.328</v>
       </c>
       <c r="O4" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R4" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T4" t="n">
         <v>42.2</v>
@@ -1084,7 +1151,7 @@
         <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1096,19 +1163,19 @@
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB4" t="n">
         <v>97.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.2</v>
+        <v>-2.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1120,13 +1187,13 @@
         <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>18</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
@@ -1141,28 +1208,28 @@
         <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1177,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
         <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>0.434</v>
+        <v>0.427</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1239,10 +1306,10 @@
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.315</v>
+        <v>0.317</v>
       </c>
       <c r="O5" t="n">
         <v>17.3</v>
@@ -1251,7 +1318,7 @@
         <v>23.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R5" t="n">
         <v>10</v>
@@ -1263,7 +1330,7 @@
         <v>44.4</v>
       </c>
       <c r="U5" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V5" t="n">
         <v>11.9</v>
@@ -1275,7 +1342,7 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z5" t="n">
         <v>18.4</v>
@@ -1290,16 +1357,16 @@
         <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -1317,25 +1384,25 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT5" t="n">
         <v>8</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1669,13 +1736,13 @@
         <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1687,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>9</v>
@@ -1705,7 +1772,7 @@
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
         <v>14</v>
@@ -1723,13 +1790,13 @@
         <v>5</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -1773,46 +1840,46 @@
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L8" t="n">
         <v>9</v>
       </c>
       <c r="M8" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O8" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>22.4</v>
+        <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="R8" t="n">
         <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.199999999999999</v>
@@ -1824,19 +1891,19 @@
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1869,19 +1936,19 @@
         <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
@@ -1890,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
         <v>8</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -1940,52 +2007,52 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
         <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" t="n">
-        <v>0.364</v>
+        <v>0.368</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L9" t="n">
         <v>7.9</v>
       </c>
       <c r="M9" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.321</v>
+        <v>0.322</v>
       </c>
       <c r="O9" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P9" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R9" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T9" t="n">
         <v>44.4</v>
@@ -2000,22 +2067,22 @@
         <v>7.7</v>
       </c>
       <c r="X9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="n">
         <v>6.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -2030,10 +2097,10 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
@@ -2078,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2087,7 +2154,7 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
         <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>0.382</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,7 +2207,7 @@
         <v>36.8</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K10" t="n">
         <v>0.428</v>
@@ -2152,7 +2219,7 @@
         <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="O10" t="n">
         <v>15.9</v>
@@ -2161,19 +2228,19 @@
         <v>22.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.705</v>
+        <v>0.706</v>
       </c>
       <c r="R10" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T10" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U10" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V10" t="n">
         <v>13.4</v>
@@ -2188,16 +2255,16 @@
         <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB10" t="n">
         <v>98</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2230,10 +2297,10 @@
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2260,13 +2327,13 @@
         <v>16</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.829</v>
+        <v>0.827</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2322,37 +2389,37 @@
         <v>41.5</v>
       </c>
       <c r="J11" t="n">
-        <v>86.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L11" t="n">
         <v>10.7</v>
       </c>
       <c r="M11" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N11" t="n">
         <v>0.397</v>
       </c>
       <c r="O11" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R11" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
         <v>27.4</v>
@@ -2364,25 +2431,25 @@
         <v>9.4</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y11" t="n">
         <v>3.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.9</v>
+        <v>109.7</v>
       </c>
       <c r="AC11" t="n">
         <v>10.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2424,10 +2491,10 @@
         <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>5</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" t="n">
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0.68</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,7 +2571,7 @@
         <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.441</v>
@@ -2513,19 +2580,19 @@
         <v>11.5</v>
       </c>
       <c r="M12" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P12" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="R12" t="n">
         <v>11.9</v>
@@ -2540,7 +2607,7 @@
         <v>22.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
@@ -2549,25 +2616,25 @@
         <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
         <v>103.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
@@ -2585,7 +2652,7 @@
         <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2597,10 +2664,10 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2612,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2627,16 +2694,16 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2758,7 +2825,7 @@
         <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2770,7 +2837,7 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2779,16 +2846,16 @@
         <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.662</v>
+        <v>0.658</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2877,19 +2944,19 @@
         <v>10.1</v>
       </c>
       <c r="M14" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="N14" t="n">
         <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P14" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.709</v>
+        <v>0.711</v>
       </c>
       <c r="R14" t="n">
         <v>9.5</v>
@@ -2904,34 +2971,34 @@
         <v>24.7</v>
       </c>
       <c r="V14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W14" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z14" t="n">
         <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AB14" t="n">
         <v>106.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2943,10 +3010,10 @@
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2961,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" t="n">
-        <v>0.27</v>
+        <v>0.267</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.1</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
@@ -3137,13 +3204,13 @@
         <v>25</v>
       </c>
       <c r="AM15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN15" t="n">
         <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -3155,13 +3222,13 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT15" t="n">
         <v>12</v>
       </c>
-      <c r="AT15" t="n">
-        <v>11</v>
-      </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
@@ -3170,19 +3237,19 @@
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY15" t="n">
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
         <v>24</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -3214,40 +3281,40 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
         <v>52</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.675</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K16" t="n">
         <v>0.458</v>
       </c>
       <c r="L16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M16" t="n">
         <v>15.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O16" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P16" t="n">
         <v>22.9</v>
@@ -3265,13 +3332,13 @@
         <v>42.4</v>
       </c>
       <c r="U16" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X16" t="n">
         <v>4.3</v>
@@ -3286,10 +3353,10 @@
         <v>20.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -3298,16 +3365,16 @@
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
         <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>9</v>
@@ -3334,7 +3401,7 @@
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
         <v>15</v>
@@ -3355,16 +3422,16 @@
         <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
         <v>34</v>
       </c>
       <c r="F17" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" t="n">
-        <v>0.447</v>
+        <v>0.453</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3426,25 +3493,25 @@
         <v>20.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
         <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q17" t="n">
         <v>0.745</v>
       </c>
       <c r="R17" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="S17" t="n">
         <v>29.8</v>
       </c>
       <c r="T17" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="U17" t="n">
         <v>20</v>
@@ -3456,7 +3523,7 @@
         <v>8.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y17" t="n">
         <v>4.4</v>
@@ -3474,16 +3541,16 @@
         <v>-2.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>26</v>
@@ -3504,7 +3571,7 @@
         <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
@@ -3540,10 +3607,10 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" t="n">
         <v>38</v>
       </c>
       <c r="F18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I18" t="n">
         <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K18" t="n">
         <v>0.457</v>
@@ -3611,16 +3678,16 @@
         <v>0.365</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P18" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R18" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S18" t="n">
         <v>31.5</v>
@@ -3632,7 +3699,7 @@
         <v>23.3</v>
       </c>
       <c r="V18" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="W18" t="n">
         <v>9.4</v>
@@ -3641,16 +3708,16 @@
         <v>4.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z18" t="n">
         <v>22.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC18" t="n">
         <v>0.1</v>
@@ -3659,19 +3726,19 @@
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>4</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
@@ -3686,10 +3753,10 @@
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
         <v>25</v>
@@ -3704,7 +3771,7 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3725,13 +3792,13 @@
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>22</v>
       </c>
       <c r="BC18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,7 +3917,7 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>24</v>
@@ -3892,7 +3959,7 @@
         <v>15</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -3945,13 +4012,13 @@
         <v>75</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.533</v>
+        <v>0.547</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,10 +4027,10 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>7.2</v>
@@ -3972,25 +4039,25 @@
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.37</v>
       </c>
       <c r="O20" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P20" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.761</v>
+        <v>0.757</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.7</v>
       </c>
       <c r="U20" t="n">
         <v>22.1</v>
@@ -4002,31 +4069,31 @@
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
         <v>14</v>
@@ -4035,13 +4102,13 @@
         <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4053,22 +4120,22 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4089,13 +4156,13 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4396,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4450,13 +4517,13 @@
         <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -4491,82 +4558,82 @@
         <v>76</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>0.316</v>
+        <v>0.303</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.348</v>
       </c>
       <c r="O23" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="P23" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA23" t="n">
         <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4584,10 +4651,10 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>22</v>
@@ -4611,16 +4678,16 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>25</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>13</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" t="n">
-        <v>0.234</v>
+        <v>0.237</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="J24" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.409</v>
@@ -4700,16 +4767,16 @@
         <v>26</v>
       </c>
       <c r="N24" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O24" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P24" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.67</v>
+        <v>0.669</v>
       </c>
       <c r="R24" t="n">
         <v>11.7</v>
@@ -4721,16 +4788,16 @@
         <v>43</v>
       </c>
       <c r="U24" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V24" t="n">
         <v>17.8</v>
       </c>
       <c r="W24" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
         <v>5.4</v>
@@ -4745,7 +4812,7 @@
         <v>91.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,16 +4839,16 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN24" t="n">
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
         <v>10</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>24</v>
       </c>
-      <c r="AZ24" t="n">
-        <v>25</v>
-      </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -4852,58 +4919,58 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="n">
         <v>38</v>
       </c>
       <c r="G25" t="n">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J25" t="n">
-        <v>86</v>
+        <v>86.2</v>
       </c>
       <c r="K25" t="n">
         <v>0.454</v>
       </c>
       <c r="L25" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="N25" t="n">
         <v>0.343</v>
       </c>
       <c r="O25" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P25" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R25" t="n">
         <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T25" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V25" t="n">
         <v>15.2</v>
@@ -4921,13 +4988,13 @@
         <v>21.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.3</v>
+        <v>103.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -4942,7 +5009,7 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>9</v>
@@ -4960,13 +5027,13 @@
         <v>9</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
         <v>13</v>
@@ -4975,34 +5042,34 @@
         <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
       </c>
       <c r="AV25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" t="n">
         <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>0.658</v>
+        <v>0.653</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5058,49 +5125,49 @@
         <v>0.45</v>
       </c>
       <c r="L26" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="N26" t="n">
         <v>0.365</v>
       </c>
       <c r="O26" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P26" t="n">
         <v>19.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.801</v>
+        <v>0.799</v>
       </c>
       <c r="R26" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S26" t="n">
         <v>35.2</v>
       </c>
       <c r="T26" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="U26" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V26" t="n">
         <v>13.6</v>
       </c>
       <c r="W26" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
         <v>4.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA26" t="n">
         <v>19</v>
@@ -5112,19 +5179,19 @@
         <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>8</v>
@@ -5136,13 +5203,13 @@
         <v>17</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5172,7 +5239,7 @@
         <v>27</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5366,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.653</v>
+        <v>0.658</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,19 +5483,19 @@
         <v>38.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
         <v>22.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O28" t="n">
         <v>16.9</v>
@@ -5452,19 +5519,19 @@
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
         <v>19.8</v>
@@ -5473,34 +5540,34 @@
         <v>102.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
         <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ28" t="n">
         <v>12</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>14</v>
@@ -5512,10 +5579,10 @@
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
@@ -5524,13 +5591,13 @@
         <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>11</v>
@@ -5542,7 +5609,7 @@
         <v>9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA28" t="n">
         <v>20</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -5580,19 +5647,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" t="n">
         <v>45</v>
       </c>
       <c r="F29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>0.584</v>
+        <v>0.592</v>
       </c>
       <c r="H29" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I29" t="n">
         <v>38</v>
@@ -5607,16 +5674,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q29" t="n">
         <v>0.787</v>
@@ -5625,13 +5692,13 @@
         <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U29" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V29" t="n">
         <v>12.9</v>
@@ -5649,13 +5716,13 @@
         <v>20.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -5676,7 +5743,7 @@
         <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
         <v>12</v>
@@ -5685,22 +5752,22 @@
         <v>8</v>
       </c>
       <c r="AM29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5709,31 +5776,31 @@
         <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
         <v>4</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" t="n">
         <v>34</v>
       </c>
       <c r="F30" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" t="n">
-        <v>0.447</v>
+        <v>0.453</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J30" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K30" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L30" t="n">
         <v>7.3</v>
@@ -5801,19 +5868,19 @@
         <v>23.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R30" t="n">
         <v>12</v>
       </c>
       <c r="S30" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T30" t="n">
         <v>43.8</v>
       </c>
       <c r="U30" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V30" t="n">
         <v>15.2</v>
@@ -5822,34 +5889,34 @@
         <v>7.5</v>
       </c>
       <c r="X30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y30" t="n">
         <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA30" t="n">
         <v>19.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC30" t="n">
         <v>0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5870,7 +5937,7 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
         <v>15</v>
@@ -5885,7 +5952,7 @@
         <v>4</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5897,16 +5964,16 @@
         <v>24</v>
       </c>
       <c r="AW30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
         <v>13</v>
       </c>
       <c r="AZ30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA30" t="n">
         <v>22</v>
@@ -5915,7 +5982,7 @@
         <v>27</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="n">
         <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.571</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5968,22 +6035,22 @@
         <v>0.463</v>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M31" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N31" t="n">
         <v>0.358</v>
       </c>
       <c r="O31" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P31" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R31" t="n">
         <v>10.4</v>
@@ -6010,16 +6077,16 @@
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
@@ -6043,7 +6110,7 @@
         <v>21</v>
       </c>
       <c r="AK31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6055,7 +6122,7 @@
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP31" t="n">
         <v>23</v>
@@ -6064,7 +6131,7 @@
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
         <v>6</v>
@@ -6076,13 +6143,13 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
@@ -6097,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-4-2014-15</t>
+          <t>2015-04-04</t>
         </is>
       </c>
     </row>
